--- a/biology/Histoire de la zoologie et de la botanique/Tusnamitsu_Adachi/Tusnamitsu_Adachi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tusnamitsu_Adachi/Tusnamitsu_Adachi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tusnamitsu Adachi est un entomologiste japonais, né le 15 septembre 1901 et mort le 2 décembre 1981.
 Militaire durant les années 1921-1922, il entre à la faculté d’agriculture de l’université de Tokyo en 1925. Dans ce même établissement, il devient assistant en 1932 puis professeur associé en 1948. En 1954, il accepte le poste de professeur à l’université Tōyō. Il prend sa retraite en 1976.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lee H. Herman (2001). Catalog of the Staphylinidae (Insecta: Coleoptera). 1758 to the end of the Second Millennium. I. Introduction, History, Biographical Sketches, and Omaliine Group, Bulletin of the American Museum of Natural History, 265 : i+vi + 649 p.  (ISSN 0003-0090)</t>
         </is>
